--- a/Code/Results/Cases/Case_1_155/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_155/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2714452444855624</v>
+        <v>0.1423372299900478</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3416066856689781</v>
+        <v>0.1647029574918975</v>
       </c>
       <c r="E2">
-        <v>1.434017073340002</v>
+        <v>0.4063152703956945</v>
       </c>
       <c r="F2">
-        <v>6.557131321356735</v>
+        <v>3.253407090054452</v>
       </c>
       <c r="G2">
-        <v>0.0007723188527854869</v>
+        <v>0.00248067443123344</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.09045470875202</v>
+        <v>0.99794825384825</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2363290392790987</v>
+        <v>0.1329922600213536</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.302664002284061</v>
+        <v>0.1541879627679208</v>
       </c>
       <c r="E3">
-        <v>1.216304912901862</v>
+        <v>0.3540936194290651</v>
       </c>
       <c r="F3">
-        <v>5.732286172251122</v>
+        <v>3.041634659218175</v>
       </c>
       <c r="G3">
-        <v>0.0007848816853312697</v>
+        <v>0.002487437468431506</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.6236295132924</v>
+        <v>0.9013982614304155</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2151053036839272</v>
+        <v>0.12733173363047</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2794957762669554</v>
+        <v>0.1477354008524827</v>
       </c>
       <c r="E4">
-        <v>1.087709317219108</v>
+        <v>0.322191273672118</v>
       </c>
       <c r="F4">
-        <v>5.241274057971111</v>
+        <v>2.91252819702467</v>
       </c>
       <c r="G4">
-        <v>0.0007926854011208897</v>
+        <v>0.00249179418744478</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.347129968196242</v>
+        <v>0.8431753647372204</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2065299958565987</v>
+        <v>0.1250444713735561</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2702089160344769</v>
+        <v>0.145106201638697</v>
       </c>
       <c r="E5">
-        <v>1.036353187749498</v>
+        <v>0.3092278998074249</v>
       </c>
       <c r="F5">
-        <v>5.044439063415695</v>
+        <v>2.860137794729894</v>
       </c>
       <c r="G5">
-        <v>0.0007958939969570305</v>
+        <v>0.002493621159712442</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.236567266971718</v>
+        <v>0.8197094231475717</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2051102041583732</v>
+        <v>0.1246658480548746</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2686752992080983</v>
+        <v>0.1446696225261093</v>
       </c>
       <c r="E6">
-        <v>1.027882751819462</v>
+        <v>0.3070774766057127</v>
       </c>
       <c r="F6">
-        <v>5.011934667209118</v>
+        <v>2.851451484547283</v>
       </c>
       <c r="G6">
-        <v>0.0007964286607410003</v>
+        <v>0.002493927648558092</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.218324497696301</v>
+        <v>0.8158284742454498</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2149893704976336</v>
+        <v>0.127300808057953</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2793699449818803</v>
+        <v>0.1476999423126841</v>
       </c>
       <c r="E7">
-        <v>1.087012747122216</v>
+        <v>0.3220162996601061</v>
       </c>
       <c r="F7">
-        <v>5.238607055955356</v>
+        <v>2.911820758526147</v>
       </c>
       <c r="G7">
-        <v>0.0007927285506787974</v>
+        <v>0.002491818617582623</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.345630854567872</v>
+        <v>0.8428578484565037</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2592597979837876</v>
+        <v>0.1390990346607026</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3280041256244175</v>
+        <v>0.1610762232502196</v>
       </c>
       <c r="E8">
-        <v>1.357745141658938</v>
+        <v>0.388273410560231</v>
       </c>
       <c r="F8">
-        <v>6.269112830615086</v>
+        <v>3.180190043990876</v>
       </c>
       <c r="G8">
-        <v>0.0007766356206432063</v>
+        <v>0.002482964086232053</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.927107407407107</v>
+        <v>0.9644343140983267</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.349349522453636</v>
+        <v>0.1628501577206265</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4310208673161497</v>
+        <v>0.18736713578609</v>
       </c>
       <c r="E9">
-        <v>1.94172641073088</v>
+        <v>0.5196605242748547</v>
       </c>
       <c r="F9">
-        <v>8.446374676431418</v>
+        <v>3.714285372704836</v>
       </c>
       <c r="G9">
-        <v>0.0007454741007293251</v>
+        <v>0.002467209984874786</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.17158501349877</v>
+        <v>1.211537328067379</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4185259758501871</v>
+        <v>0.1806789579369905</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5144224612798212</v>
+        <v>0.2067641981097381</v>
       </c>
       <c r="E10">
-        <v>2.426134671407254</v>
+        <v>0.6173291359623647</v>
       </c>
       <c r="F10">
-        <v>10.2002659680428</v>
+        <v>4.112195600931045</v>
       </c>
       <c r="G10">
-        <v>0.0007222647929938653</v>
+        <v>0.002456601874050975</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.1914851429691</v>
+        <v>1.398807645846261</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4509263062691673</v>
+        <v>0.1888730601785795</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5549702702731167</v>
+        <v>0.2156158898887952</v>
       </c>
       <c r="E11">
-        <v>2.665855884008735</v>
+        <v>0.662064338964413</v>
       </c>
       <c r="F11">
-        <v>11.04950485940776</v>
+        <v>4.294577246874496</v>
       </c>
       <c r="G11">
-        <v>0.0007114672595058376</v>
+        <v>0.002451982614984631</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5.691422134015909</v>
+        <v>1.485340500906204</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4633594153605003</v>
+        <v>0.1919880348911107</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5708055265127143</v>
+        <v>0.2189725861398699</v>
       </c>
       <c r="E12">
-        <v>2.760282590405581</v>
+        <v>0.679052815140011</v>
       </c>
       <c r="F12">
-        <v>11.3804974254607</v>
+        <v>4.363850481336044</v>
       </c>
       <c r="G12">
-        <v>0.0007073245780803413</v>
+        <v>0.00245026285501061</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>5.887409668567329</v>
+        <v>1.518309000953707</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4606738846842262</v>
+        <v>0.191316633383849</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5673717204410877</v>
+        <v>0.218249438171398</v>
       </c>
       <c r="E13">
-        <v>2.73976688454465</v>
+        <v>0.6753918279009667</v>
       </c>
       <c r="F13">
-        <v>11.30875554422306</v>
+        <v>4.34892174646501</v>
       </c>
       <c r="G13">
-        <v>0.0007082195490201787</v>
+        <v>0.002450631929908272</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5.8448746368407</v>
+        <v>1.511199613684823</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.451945706247713</v>
+        <v>0.1891290895252098</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5562626961740023</v>
+        <v>0.2158919477450354</v>
       </c>
       <c r="E14">
-        <v>2.673545301124037</v>
+        <v>0.6634609994157046</v>
       </c>
       <c r="F14">
-        <v>11.07653371003545</v>
+        <v>4.300272132703412</v>
       </c>
       <c r="G14">
-        <v>0.0007111276508152996</v>
+        <v>0.002451840540303783</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.707402201550224</v>
+        <v>1.48804878057814</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.446621783630718</v>
+        <v>0.1877907248938584</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5495243577693145</v>
+        <v>0.214448558057228</v>
       </c>
       <c r="E15">
-        <v>2.633488456968365</v>
+        <v>0.6561594332492291</v>
       </c>
       <c r="F15">
-        <v>10.9355854984405</v>
+        <v>4.270500458865797</v>
       </c>
       <c r="G15">
-        <v>0.000712901253315483</v>
+        <v>0.002452584677905171</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.624117490084018</v>
+        <v>1.473894543617121</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4164296819822937</v>
+        <v>0.1801451390543036</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5118334120380155</v>
+        <v>0.2061863434520319</v>
       </c>
       <c r="E16">
-        <v>2.410925793773657</v>
+        <v>0.6144120955137709</v>
       </c>
       <c r="F16">
-        <v>10.14595996849471</v>
+        <v>4.100305143647404</v>
       </c>
       <c r="G16">
-        <v>0.0007229640801786896</v>
+        <v>0.002456907887306195</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.159655383539246</v>
+        <v>1.393180158363634</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3981655975740779</v>
+        <v>0.1754762620766002</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4894455317445079</v>
+        <v>0.2011254067888046</v>
       </c>
       <c r="E17">
-        <v>2.279884517812434</v>
+        <v>0.5888826873360671</v>
       </c>
       <c r="F17">
-        <v>9.67597876751347</v>
+        <v>3.996255405741124</v>
       </c>
       <c r="G17">
-        <v>0.0007290637787656198</v>
+        <v>0.0024596127430065</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4.8848741870803</v>
+        <v>1.344013521495128</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3877461428772051</v>
+        <v>0.1727987240751077</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4768063381492027</v>
+        <v>0.1982170679023909</v>
       </c>
       <c r="E18">
-        <v>2.206270761292586</v>
+        <v>0.5742273142249417</v>
       </c>
       <c r="F18">
-        <v>9.410347054488653</v>
+        <v>3.936536980310905</v>
       </c>
       <c r="G18">
-        <v>0.0007325510523956382</v>
+        <v>0.002461187947932117</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>4.730103198022562</v>
+        <v>1.31586009891987</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3842321877602473</v>
+        <v>0.1718935082359394</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4725649960898579</v>
+        <v>0.1972327746231173</v>
       </c>
       <c r="E19">
-        <v>2.181626154598533</v>
+        <v>0.5692700158555226</v>
       </c>
       <c r="F19">
-        <v>9.321161338559733</v>
+        <v>3.91633900343831</v>
       </c>
       <c r="G19">
-        <v>0.0007337286636235341</v>
+        <v>0.002461724631676974</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4.678224165761435</v>
+        <v>1.306349242256431</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.400100790342151</v>
+        <v>0.1759724567382364</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4918034841994086</v>
+        <v>0.2016638799650821</v>
       </c>
       <c r="E20">
-        <v>2.293646753580404</v>
+        <v>0.5915973591471868</v>
       </c>
       <c r="F20">
-        <v>9.725510921410319</v>
+        <v>4.007318318783661</v>
       </c>
       <c r="G20">
-        <v>0.0007284167637900283</v>
+        <v>0.002459322796046395</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>4.913776587433915</v>
+        <v>1.349234308675705</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4545046647359783</v>
+        <v>0.1897712971495054</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.559511642941402</v>
+        <v>0.2165842648432772</v>
       </c>
       <c r="E21">
-        <v>2.692888810553413</v>
+        <v>0.666964029077306</v>
       </c>
       <c r="F21">
-        <v>11.14446868994565</v>
+        <v>4.314555925539025</v>
       </c>
       <c r="G21">
-        <v>0.0007102751174853167</v>
+        <v>0.002451484744679516</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5.7475858761278</v>
+        <v>1.494843243707919</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4910350778564663</v>
+        <v>0.1988598583985066</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.6066388108771719</v>
+        <v>0.2263636561905855</v>
       </c>
       <c r="E22">
-        <v>2.975724294343919</v>
+        <v>0.7165036888911374</v>
       </c>
       <c r="F22">
-        <v>12.12806111080607</v>
+        <v>4.516579067120176</v>
       </c>
       <c r="G22">
-        <v>0.0006980906272417019</v>
+        <v>0.002446533693346168</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.332485851282968</v>
+        <v>1.591178645985963</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4714370945461752</v>
+        <v>0.1940026922636804</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.581179276719979</v>
+        <v>0.2211413942288516</v>
       </c>
       <c r="E23">
-        <v>2.822397383069529</v>
+        <v>0.6900360696645436</v>
       </c>
       <c r="F23">
-        <v>11.59712403693749</v>
+        <v>4.408639266348985</v>
       </c>
       <c r="G23">
-        <v>0.0007046318055904758</v>
+        <v>0.002449160540423408</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.016032573675034</v>
+        <v>1.539652961122101</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3992256401377006</v>
+        <v>0.1757481063833666</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4907367391169544</v>
+        <v>0.2014204323703552</v>
       </c>
       <c r="E24">
-        <v>2.287419539244937</v>
+        <v>0.5903699883714495</v>
       </c>
       <c r="F24">
-        <v>9.703103354035733</v>
+        <v>4.002316461642891</v>
       </c>
       <c r="G24">
-        <v>0.000728709338495559</v>
+        <v>0.002459453818123567</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.90069993782771</v>
+        <v>1.34687363896137</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3245349560673674</v>
+        <v>0.1563586231874297</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4020574210120884</v>
+        <v>0.1802437554644172</v>
       </c>
       <c r="E25">
-        <v>1.776020965313435</v>
+        <v>0.483935313319563</v>
       </c>
       <c r="F25">
-        <v>7.835283129063839</v>
+        <v>3.568885083366439</v>
       </c>
       <c r="G25">
-        <v>0.0007539118957400413</v>
+        <v>0.002471301097462618</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.819989848341891</v>
+        <v>1.143715630494683</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_155/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_155/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1423372299900478</v>
+        <v>0.2714452444857045</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1647029574918975</v>
+        <v>0.3416066856685376</v>
       </c>
       <c r="E2">
-        <v>0.4063152703956945</v>
+        <v>1.434017073339987</v>
       </c>
       <c r="F2">
-        <v>3.253407090054452</v>
+        <v>6.557131321356763</v>
       </c>
       <c r="G2">
-        <v>0.00248067443123344</v>
+        <v>0.0007723188527270387</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.99794825384825</v>
+        <v>3.090454708752105</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329922600213536</v>
+        <v>0.2363290392794539</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1541879627679208</v>
+        <v>0.3026640022836489</v>
       </c>
       <c r="E3">
-        <v>0.3540936194290651</v>
+        <v>1.216304912901876</v>
       </c>
       <c r="F3">
-        <v>3.041634659218175</v>
+        <v>5.73228617225115</v>
       </c>
       <c r="G3">
-        <v>0.002487437468431506</v>
+        <v>0.0007848816852390104</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9013982614304155</v>
+        <v>2.623629513292258</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.12733173363047</v>
+        <v>0.2151053036839272</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1477354008524827</v>
+        <v>0.2794957762667849</v>
       </c>
       <c r="E4">
-        <v>0.322191273672118</v>
+        <v>1.087709317219122</v>
       </c>
       <c r="F4">
-        <v>2.91252819702467</v>
+        <v>5.241274057971111</v>
       </c>
       <c r="G4">
-        <v>0.00249179418744478</v>
+        <v>0.0007926854011220437</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8431753647372204</v>
+        <v>2.347129968196185</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1250444713735561</v>
+        <v>0.2065299958565561</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.145106201638697</v>
+        <v>0.2702089160346191</v>
       </c>
       <c r="E5">
-        <v>0.3092278998074249</v>
+        <v>1.03635318774954</v>
       </c>
       <c r="F5">
-        <v>2.860137794729894</v>
+        <v>5.044439063415751</v>
       </c>
       <c r="G5">
-        <v>0.002493621159712442</v>
+        <v>0.0007958939969546095</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8197094231475717</v>
+        <v>2.236567266971832</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1246658480548746</v>
+        <v>0.2051102041583732</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1446696225261093</v>
+        <v>0.2686752992081836</v>
       </c>
       <c r="E6">
-        <v>0.3070774766057127</v>
+        <v>1.02788275181949</v>
       </c>
       <c r="F6">
-        <v>2.851451484547283</v>
+        <v>5.01193466720909</v>
       </c>
       <c r="G6">
-        <v>0.002493927648558092</v>
+        <v>0.0007964286605696579</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8158284742454498</v>
+        <v>2.218324497696329</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.127300808057953</v>
+        <v>0.2149893704976904</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1476999423126841</v>
+        <v>0.2793699449821645</v>
       </c>
       <c r="E7">
-        <v>0.3220162996601061</v>
+        <v>1.087012747122216</v>
       </c>
       <c r="F7">
-        <v>2.911820758526147</v>
+        <v>5.238607055955271</v>
       </c>
       <c r="G7">
-        <v>0.002491818617582623</v>
+        <v>0.0007927285506288238</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8428578484565037</v>
+        <v>2.345630854567759</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1390990346607026</v>
+        <v>0.2592597979838303</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1610762232502196</v>
+        <v>0.3280041256244033</v>
       </c>
       <c r="E8">
-        <v>0.388273410560231</v>
+        <v>1.357745141658938</v>
       </c>
       <c r="F8">
-        <v>3.180190043990876</v>
+        <v>6.269112830615086</v>
       </c>
       <c r="G8">
-        <v>0.002482964086232053</v>
+        <v>0.0007766356205321198</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9644343140983267</v>
+        <v>2.927107407406993</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1628501577206265</v>
+        <v>0.3493495224536645</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.18736713578609</v>
+        <v>0.4310208673161355</v>
       </c>
       <c r="E9">
-        <v>0.5196605242748547</v>
+        <v>1.941726410730951</v>
       </c>
       <c r="F9">
-        <v>3.714285372704836</v>
+        <v>8.446374676431532</v>
       </c>
       <c r="G9">
-        <v>0.002467209984874786</v>
+        <v>0.0007454741008310216</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.211537328067379</v>
+        <v>4.17158501349877</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1806789579369905</v>
+        <v>0.4185259758502724</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2067641981097381</v>
+        <v>0.5144224612800201</v>
       </c>
       <c r="E10">
-        <v>0.6173291359623647</v>
+        <v>2.426134671407311</v>
       </c>
       <c r="F10">
-        <v>4.112195600931045</v>
+        <v>10.20026596804269</v>
       </c>
       <c r="G10">
-        <v>0.002456601874050975</v>
+        <v>0.0007222647930013967</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.398807645846261</v>
+        <v>5.1914851429691</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1888730601785795</v>
+        <v>0.4509263062696789</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2156158898887952</v>
+        <v>0.5549702702732588</v>
       </c>
       <c r="E11">
-        <v>0.662064338964413</v>
+        <v>2.665855884008693</v>
       </c>
       <c r="F11">
-        <v>4.294577246874496</v>
+        <v>11.04950485940788</v>
       </c>
       <c r="G11">
-        <v>0.002451982614984631</v>
+        <v>0.0007114672593928718</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.485340500906204</v>
+        <v>5.691422134015681</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1919880348911107</v>
+        <v>0.4633594153603866</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2189725861398699</v>
+        <v>0.570805526512288</v>
       </c>
       <c r="E12">
-        <v>0.679052815140011</v>
+        <v>2.760282590405509</v>
       </c>
       <c r="F12">
-        <v>4.363850481336044</v>
+        <v>11.38049742546076</v>
       </c>
       <c r="G12">
-        <v>0.00245026285501061</v>
+        <v>0.0007073245779527604</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.518309000953707</v>
+        <v>5.887409668567216</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.191316633383849</v>
+        <v>0.4606738846840841</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.218249438171398</v>
+        <v>0.5673717204408604</v>
       </c>
       <c r="E13">
-        <v>0.6753918279009667</v>
+        <v>2.739766884544636</v>
       </c>
       <c r="F13">
-        <v>4.34892174646501</v>
+        <v>11.30875554422295</v>
       </c>
       <c r="G13">
-        <v>0.002450631929908272</v>
+        <v>0.0007082195488187957</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.511199613684823</v>
+        <v>5.8448746368407</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1891290895252098</v>
+        <v>0.4519457062478267</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2158919477450354</v>
+        <v>0.5562626961740875</v>
       </c>
       <c r="E14">
-        <v>0.6634609994157046</v>
+        <v>2.673545301124122</v>
       </c>
       <c r="F14">
-        <v>4.300272132703412</v>
+        <v>11.07653371003562</v>
       </c>
       <c r="G14">
-        <v>0.002451840540303783</v>
+        <v>0.0007111276506726905</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.48804878057814</v>
+        <v>5.707402201550337</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1877907248938584</v>
+        <v>0.4466217836307322</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.214448558057228</v>
+        <v>0.5495243577695419</v>
       </c>
       <c r="E15">
-        <v>0.6561594332492291</v>
+        <v>2.633488456968365</v>
       </c>
       <c r="F15">
-        <v>4.270500458865797</v>
+        <v>10.93558549844056</v>
       </c>
       <c r="G15">
-        <v>0.002452584677905171</v>
+        <v>0.0007129012533132403</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.473894543617121</v>
+        <v>5.624117490084245</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1801451390543036</v>
+        <v>0.4164296819825353</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2061863434520319</v>
+        <v>0.5118334120377597</v>
       </c>
       <c r="E16">
-        <v>0.6144120955137709</v>
+        <v>2.410925793773643</v>
       </c>
       <c r="F16">
-        <v>4.100305143647404</v>
+        <v>10.14595996849479</v>
       </c>
       <c r="G16">
-        <v>0.002456907887306195</v>
+        <v>0.000722964080397935</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.393180158363634</v>
+        <v>5.159655383539075</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1754762620766002</v>
+        <v>0.3981655975745326</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2011254067888046</v>
+        <v>0.4894455317449342</v>
       </c>
       <c r="E17">
-        <v>0.5888826873360671</v>
+        <v>2.279884517812476</v>
       </c>
       <c r="F17">
-        <v>3.996255405741124</v>
+        <v>9.675978767513527</v>
       </c>
       <c r="G17">
-        <v>0.0024596127430065</v>
+        <v>0.0007290637786409207</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.344013521495128</v>
+        <v>4.88487418708047</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1727987240751077</v>
+        <v>0.3877461428770772</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1982170679023909</v>
+        <v>0.4768063381496006</v>
       </c>
       <c r="E18">
-        <v>0.5742273142249417</v>
+        <v>2.206270761292544</v>
       </c>
       <c r="F18">
-        <v>3.936536980310905</v>
+        <v>9.410347054488739</v>
       </c>
       <c r="G18">
-        <v>0.002461187947932117</v>
+        <v>0.0007325510526015045</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.31586009891987</v>
+        <v>4.730103198022334</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1718935082359394</v>
+        <v>0.3842321877603752</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1972327746231173</v>
+        <v>0.4725649960900853</v>
       </c>
       <c r="E19">
-        <v>0.5692700158555226</v>
+        <v>2.181626154598462</v>
       </c>
       <c r="F19">
-        <v>3.91633900343831</v>
+        <v>9.321161338559818</v>
       </c>
       <c r="G19">
-        <v>0.002461724631676974</v>
+        <v>0.0007337286634985496</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.306349242256431</v>
+        <v>4.678224165761605</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1759724567382364</v>
+        <v>0.4001007903424494</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2016638799650821</v>
+        <v>0.4918034841993801</v>
       </c>
       <c r="E20">
-        <v>0.5915973591471868</v>
+        <v>2.293646753580333</v>
       </c>
       <c r="F20">
-        <v>4.007318318783661</v>
+        <v>9.725510921410319</v>
       </c>
       <c r="G20">
-        <v>0.002459322796046395</v>
+        <v>0.0007284167637871417</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.349234308675705</v>
+        <v>4.913776587433915</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1897712971495054</v>
+        <v>0.454504664735822</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2165842648432772</v>
+        <v>0.5595116429409188</v>
       </c>
       <c r="E21">
-        <v>0.666964029077306</v>
+        <v>2.692888810553399</v>
       </c>
       <c r="F21">
-        <v>4.314555925539025</v>
+        <v>11.14446868994571</v>
       </c>
       <c r="G21">
-        <v>0.002451484744679516</v>
+        <v>0.0007102751175844636</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.494843243707919</v>
+        <v>5.747585876128142</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1988598583985066</v>
+        <v>0.4910350778565231</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2263636561905855</v>
+        <v>0.6066388108772003</v>
       </c>
       <c r="E22">
-        <v>0.7165036888911374</v>
+        <v>2.975724294343905</v>
       </c>
       <c r="F22">
-        <v>4.516579067120176</v>
+        <v>12.12806111080607</v>
       </c>
       <c r="G22">
-        <v>0.002446533693346168</v>
+        <v>0.0006980906272434854</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.591178645985963</v>
+        <v>6.332485851283195</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1940026922636804</v>
+        <v>0.4714370945461184</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2211413942288516</v>
+        <v>0.5811792767195527</v>
       </c>
       <c r="E23">
-        <v>0.6900360696645436</v>
+        <v>2.822397383069514</v>
       </c>
       <c r="F23">
-        <v>4.408639266348985</v>
+        <v>11.59712403693743</v>
       </c>
       <c r="G23">
-        <v>0.002449160540423408</v>
+        <v>0.0007046318057229015</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.539652961122101</v>
+        <v>6.016032573675034</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1757481063833666</v>
+        <v>0.3992256401378853</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2014204323703552</v>
+        <v>0.4907367391173807</v>
       </c>
       <c r="E24">
-        <v>0.5903699883714495</v>
+        <v>2.287419539245008</v>
       </c>
       <c r="F24">
-        <v>4.002316461642891</v>
+        <v>9.703103354035818</v>
       </c>
       <c r="G24">
-        <v>0.002459453818123567</v>
+        <v>0.000728709338714922</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.34687363896137</v>
+        <v>4.90069993782771</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1563586231874297</v>
+        <v>0.3245349560673105</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1802437554644172</v>
+        <v>0.4020574210116479</v>
       </c>
       <c r="E25">
-        <v>0.483935313319563</v>
+        <v>1.77602096531345</v>
       </c>
       <c r="F25">
-        <v>3.568885083366439</v>
+        <v>7.835283129063924</v>
       </c>
       <c r="G25">
-        <v>0.002471301097462618</v>
+        <v>0.0007539118957319073</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.143715630494683</v>
+        <v>3.81998984834172</v>
       </c>
       <c r="L25">
         <v>0</v>
